--- a/data/raw/interaction_matrices/willem_2012/0_20_60/transport.xlsx
+++ b/data/raw/interaction_matrices/willem_2012/0_20_60/transport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,12 +56,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -77,6 +76,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,72 +156,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.312327288990659</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.219390711206061</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0386654042534379</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0797746778636008</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.33782277052361</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.112910783695072</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0341010173977817</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.273863011658016</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.362601165872233</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -230,72 +236,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.157597986021004</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.0759858096367971</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0188497905126497</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0276299003392488</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0844563153769023</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0269147301012541</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0166246040000798</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.065281178664016</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.143921995733363</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -313,72 +316,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0364896435882137</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.0481680491095599</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.00838135353034648</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0175148281342874</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.141083215660142</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0461641757091993</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.00739194864437223</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.111970351960128</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.116922195830033</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -396,72 +396,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0947505479059496</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.0985262144946632</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0153762053972348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0358260246262178</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.213682373467017</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0797785591878183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0135610698475071</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.193501415630212</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.228254225626872</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -479,72 +476,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0987327604656418</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.0608542712728454</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0151680458913332</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0221277822599141</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0568880073737287</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0111491264856102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0133774832260991</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.0270419995042387</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0524158292010805</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -562,72 +556,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0408372514663593</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.0251333914335749</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.00501934350176275</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0091389840263111</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0184777008797321</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.00236801682368081</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.00442681832464833</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.00574358088543119</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0162822021177949</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
